--- a/05b.xlsx
+++ b/05b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4E18E-9964-4624-B898-4DB720C98B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD71DE0-7A3B-4726-B5E8-BE1BA6BDBD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3922" yWindow="1522" windowWidth="28231" windowHeight="15098" xr2:uid="{AD5A84EE-4BCE-4A28-BC9A-07749CE83B45}"/>
+    <workbookView xWindow="1132" yWindow="368" windowWidth="28231" windowHeight="15097" xr2:uid="{AD5A84EE-4BCE-4A28-BC9A-07749CE83B45}"/>
   </bookViews>
   <sheets>
     <sheet name="平均情報量" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -169,91 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>確率p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>カクリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-logp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>logp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>平均情報量を求める</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
@@ -316,6 +231,103 @@
     <rPh sb="11" eb="13">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>確率P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>-logP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-logP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -793,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE552707-7253-4AC6-A9B0-C59767787FB7}">
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -819,7 +831,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -847,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.7">
@@ -1112,7 +1124,7 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -1124,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -7568,17 +7580,17 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="T1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
@@ -7606,37 +7618,37 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.7">
@@ -8216,7 +8228,7 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L15" s="12">
         <f>SUM(L4:L14)</f>
@@ -8251,14 +8263,14 @@
         <v>10</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L16" s="12">
         <f>L15/LOG(COUNT(I4:I14),2)</f>
         <v>0.94223086968629444</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="12">
         <f>Q15/LOG(COUNT(N4:N14),2)</f>
